--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3505.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3505.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.253964690874116</v>
+        <v>2.310985565185547</v>
       </c>
       <c r="B1">
-        <v>3.569834920466972</v>
+        <v>3.186798810958862</v>
       </c>
       <c r="C1">
-        <v>6.212107608965634</v>
+        <v>2.552442312240601</v>
       </c>
       <c r="D1">
-        <v>2.154846988004619</v>
+        <v>2.4888014793396</v>
       </c>
       <c r="E1">
-        <v>1.348829598512822</v>
+        <v>2.20829439163208</v>
       </c>
     </row>
   </sheetData>
